--- a/KRLA_extraction_plates.xlsx
+++ b/KRLA_extraction_plates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/KRLA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97E9F115-AB43-B846-8FC0-4D87B1BDCFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D926D62C-B595-FD44-8F7F-D8185A56252C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="511">
   <si>
     <t>A</t>
   </si>
@@ -2393,15 +2393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:X94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>505</v>
       </c>
@@ -2441,8 +2441,35 @@
       <c r="M1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2482,8 +2509,35 @@
       <c r="M2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2523,8 +2577,35 @@
       <c r="M3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2564,8 +2645,35 @@
       <c r="M4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" t="s">
+        <v>79</v>
+      </c>
+      <c r="X4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2605,8 +2713,35 @@
       <c r="M5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2643,8 +2778,35 @@
       <c r="L6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -2681,8 +2843,35 @@
       <c r="L7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" t="s">
+        <v>70</v>
+      </c>
+      <c r="W7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -2719,8 +2908,35 @@
       <c r="L8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -2757,1625 +2973,3326 @@
       <c r="L9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W9" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" t="s">
+        <v>73</v>
+      </c>
+      <c r="W10" t="s">
+        <v>85</v>
+      </c>
+      <c r="X10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" t="s">
+        <v>63</v>
+      </c>
+      <c r="V12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>87</v>
+      </c>
+      <c r="X12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>506</v>
       </c>
-      <c r="B11">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E16">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="G11">
+      <c r="G16">
         <v>6</v>
       </c>
-      <c r="H11">
+      <c r="H16">
         <v>7</v>
       </c>
-      <c r="I11">
+      <c r="I16">
         <v>8</v>
       </c>
-      <c r="J11">
+      <c r="J16">
         <v>9</v>
       </c>
-      <c r="K11">
+      <c r="K16">
         <v>10</v>
       </c>
-      <c r="L11">
+      <c r="L16">
         <v>11</v>
       </c>
-      <c r="M11">
+      <c r="M16">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="P16" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q16" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="R16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V16" t="s">
+        <v>64</v>
+      </c>
+      <c r="W16" t="s">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
         <v>100</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>101</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D17" t="s">
         <v>102</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E17" t="s">
         <v>103</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F17" t="s">
         <v>104</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G17" t="s">
         <v>105</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H17" t="s">
         <v>106</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I17" t="s">
         <v>107</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J17" t="s">
         <v>108</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K17" t="s">
         <v>109</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L17" t="s">
         <v>110</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" t="s">
+        <v>124</v>
+      </c>
+      <c r="T17" t="s">
+        <v>136</v>
+      </c>
+      <c r="U17" t="s">
+        <v>148</v>
+      </c>
+      <c r="V17" t="s">
+        <v>159</v>
+      </c>
+      <c r="W17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>112</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" t="s">
         <v>113</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D18" t="s">
         <v>114</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E18" t="s">
         <v>115</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F18" t="s">
         <v>116</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G18" t="s">
         <v>117</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H18" t="s">
         <v>118</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I18" t="s">
         <v>119</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J18" t="s">
         <v>120</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K18" t="s">
         <v>121</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L18" t="s">
         <v>122</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M18" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>101</v>
+      </c>
+      <c r="R18" t="s">
+        <v>113</v>
+      </c>
+      <c r="S18" t="s">
+        <v>125</v>
+      </c>
+      <c r="T18" t="s">
+        <v>137</v>
+      </c>
+      <c r="U18" t="s">
+        <v>149</v>
+      </c>
+      <c r="V18" t="s">
+        <v>160</v>
+      </c>
+      <c r="W18" t="s">
+        <v>171</v>
+      </c>
+      <c r="X18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>124</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D19" t="s">
         <v>126</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E19" t="s">
         <v>127</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F19" t="s">
         <v>128</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G19" t="s">
         <v>129</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H19" t="s">
         <v>130</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I19" t="s">
         <v>131</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J19" t="s">
         <v>132</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K19" t="s">
         <v>133</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L19" t="s">
         <v>134</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M19" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" t="s">
+        <v>114</v>
+      </c>
+      <c r="S19" t="s">
+        <v>126</v>
+      </c>
+      <c r="T19" t="s">
+        <v>138</v>
+      </c>
+      <c r="U19" t="s">
+        <v>150</v>
+      </c>
+      <c r="V19" t="s">
+        <v>161</v>
+      </c>
+      <c r="W19" t="s">
+        <v>172</v>
+      </c>
+      <c r="X19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>136</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" t="s">
         <v>137</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D20" t="s">
         <v>138</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E20" t="s">
         <v>139</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F20" t="s">
         <v>140</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G20" t="s">
         <v>141</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H20" t="s">
         <v>142</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I20" t="s">
         <v>143</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J20" t="s">
         <v>144</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K20" t="s">
         <v>145</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L20" t="s">
         <v>146</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M20" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>103</v>
+      </c>
+      <c r="R20" t="s">
+        <v>115</v>
+      </c>
+      <c r="S20" t="s">
+        <v>127</v>
+      </c>
+      <c r="T20" t="s">
+        <v>139</v>
+      </c>
+      <c r="U20" t="s">
+        <v>151</v>
+      </c>
+      <c r="V20" t="s">
+        <v>162</v>
+      </c>
+      <c r="W20" t="s">
+        <v>173</v>
+      </c>
+      <c r="X20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>148</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" t="s">
         <v>149</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D21" t="s">
         <v>150</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E21" t="s">
         <v>151</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F21" t="s">
         <v>152</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G21" t="s">
         <v>153</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H21" t="s">
         <v>154</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I21" t="s">
         <v>155</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J21" t="s">
         <v>156</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K21" t="s">
         <v>157</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L21" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>104</v>
+      </c>
+      <c r="R21" t="s">
+        <v>116</v>
+      </c>
+      <c r="S21" t="s">
+        <v>128</v>
+      </c>
+      <c r="T21" t="s">
+        <v>140</v>
+      </c>
+      <c r="U21" t="s">
+        <v>152</v>
+      </c>
+      <c r="V21" t="s">
+        <v>163</v>
+      </c>
+      <c r="W21" t="s">
+        <v>174</v>
+      </c>
+      <c r="X21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>159</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
         <v>160</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D22" t="s">
         <v>161</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E22" t="s">
         <v>162</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F22" t="s">
         <v>163</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G22" t="s">
         <v>164</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H22" t="s">
         <v>165</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I22" t="s">
         <v>166</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J22" t="s">
         <v>167</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K22" t="s">
         <v>168</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="P22">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>105</v>
+      </c>
+      <c r="R22" t="s">
+        <v>117</v>
+      </c>
+      <c r="S22" t="s">
+        <v>129</v>
+      </c>
+      <c r="T22" t="s">
+        <v>141</v>
+      </c>
+      <c r="U22" t="s">
+        <v>153</v>
+      </c>
+      <c r="V22" t="s">
+        <v>164</v>
+      </c>
+      <c r="W22" t="s">
+        <v>175</v>
+      </c>
+      <c r="X22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>76</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
         <v>170</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
         <v>171</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D23" t="s">
         <v>172</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E23" t="s">
         <v>173</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F23" t="s">
         <v>174</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G23" t="s">
         <v>175</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H23" t="s">
         <v>176</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I23" t="s">
         <v>177</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J23" t="s">
         <v>178</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K23" t="s">
         <v>179</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L23" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>106</v>
+      </c>
+      <c r="R23" t="s">
+        <v>118</v>
+      </c>
+      <c r="S23" t="s">
+        <v>130</v>
+      </c>
+      <c r="T23" t="s">
+        <v>142</v>
+      </c>
+      <c r="U23" t="s">
+        <v>154</v>
+      </c>
+      <c r="V23" t="s">
+        <v>165</v>
+      </c>
+      <c r="W23" t="s">
+        <v>176</v>
+      </c>
+      <c r="X23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>88</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>181</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" t="s">
         <v>182</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D24" t="s">
         <v>183</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E24" t="s">
         <v>184</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F24" t="s">
         <v>185</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G24" t="s">
         <v>186</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H24" t="s">
         <v>187</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I24" t="s">
         <v>188</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J24" t="s">
         <v>189</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K24" t="s">
         <v>190</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L24" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="P24">
+        <v>8</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>107</v>
+      </c>
+      <c r="R24" t="s">
+        <v>119</v>
+      </c>
+      <c r="S24" t="s">
+        <v>131</v>
+      </c>
+      <c r="T24" t="s">
+        <v>143</v>
+      </c>
+      <c r="U24" t="s">
+        <v>155</v>
+      </c>
+      <c r="V24" t="s">
+        <v>166</v>
+      </c>
+      <c r="W24" t="s">
+        <v>177</v>
+      </c>
+      <c r="X24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>9</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>108</v>
+      </c>
+      <c r="R25" t="s">
+        <v>120</v>
+      </c>
+      <c r="S25" t="s">
+        <v>132</v>
+      </c>
+      <c r="T25" t="s">
+        <v>144</v>
+      </c>
+      <c r="U25" t="s">
+        <v>156</v>
+      </c>
+      <c r="V25" t="s">
+        <v>167</v>
+      </c>
+      <c r="W25" t="s">
+        <v>178</v>
+      </c>
+      <c r="X25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>109</v>
+      </c>
+      <c r="R26" t="s">
+        <v>121</v>
+      </c>
+      <c r="S26" t="s">
+        <v>133</v>
+      </c>
+      <c r="T26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U26" t="s">
+        <v>157</v>
+      </c>
+      <c r="V26" t="s">
+        <v>168</v>
+      </c>
+      <c r="W26" t="s">
+        <v>179</v>
+      </c>
+      <c r="X26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>11</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>110</v>
+      </c>
+      <c r="R27" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" t="s">
+        <v>134</v>
+      </c>
+      <c r="T27" t="s">
+        <v>146</v>
+      </c>
+      <c r="U27" t="s">
+        <v>158</v>
+      </c>
+      <c r="V27" t="s">
+        <v>169</v>
+      </c>
+      <c r="W27" t="s">
+        <v>180</v>
+      </c>
+      <c r="X27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>12</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>111</v>
+      </c>
+      <c r="R28" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" t="s">
+        <v>135</v>
+      </c>
+      <c r="T28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>507</v>
       </c>
-      <c r="B21">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="E21">
+      <c r="E32">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="F32">
         <v>5</v>
       </c>
-      <c r="G21">
+      <c r="G32">
         <v>6</v>
       </c>
-      <c r="H21">
+      <c r="H32">
         <v>7</v>
       </c>
-      <c r="I21">
+      <c r="I32">
         <v>8</v>
       </c>
-      <c r="J21">
+      <c r="J32">
         <v>9</v>
       </c>
-      <c r="K21">
+      <c r="K32">
         <v>10</v>
       </c>
-      <c r="L21">
+      <c r="L32">
         <v>11</v>
       </c>
-      <c r="M21">
+      <c r="M32">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="P32" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q32" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
+      <c r="R32" t="s">
+        <v>13</v>
+      </c>
+      <c r="S32" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" t="s">
+        <v>39</v>
+      </c>
+      <c r="U32" t="s">
+        <v>52</v>
+      </c>
+      <c r="V32" t="s">
+        <v>64</v>
+      </c>
+      <c r="W32" t="s">
+        <v>76</v>
+      </c>
+      <c r="X32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
         <v>192</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C33" t="s">
         <v>193</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D33" t="s">
         <v>194</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E33" t="s">
         <v>195</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F33" t="s">
         <v>196</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G33" t="s">
         <v>197</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H33" t="s">
         <v>198</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I33" t="s">
         <v>199</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J33" t="s">
         <v>200</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K33" t="s">
         <v>201</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L33" t="s">
         <v>202</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M33" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>192</v>
+      </c>
+      <c r="R33" t="s">
+        <v>204</v>
+      </c>
+      <c r="S33" t="s">
+        <v>216</v>
+      </c>
+      <c r="T33" t="s">
+        <v>228</v>
+      </c>
+      <c r="U33" t="s">
+        <v>240</v>
+      </c>
+      <c r="V33" t="s">
+        <v>251</v>
+      </c>
+      <c r="W33" t="s">
+        <v>262</v>
+      </c>
+      <c r="X33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B34" t="s">
         <v>204</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C34" t="s">
         <v>205</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D34" t="s">
         <v>206</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E34" t="s">
         <v>207</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F34" t="s">
         <v>208</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G34" t="s">
         <v>209</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H34" t="s">
         <v>210</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I34" t="s">
         <v>211</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J34" t="s">
         <v>212</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K34" t="s">
         <v>213</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L34" t="s">
         <v>214</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M34" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>193</v>
+      </c>
+      <c r="R34" t="s">
+        <v>205</v>
+      </c>
+      <c r="S34" t="s">
+        <v>217</v>
+      </c>
+      <c r="T34" t="s">
+        <v>229</v>
+      </c>
+      <c r="U34" t="s">
+        <v>241</v>
+      </c>
+      <c r="V34" t="s">
+        <v>252</v>
+      </c>
+      <c r="W34" t="s">
+        <v>263</v>
+      </c>
+      <c r="X34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B35" t="s">
         <v>216</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C35" t="s">
         <v>217</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D35" t="s">
         <v>218</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E35" t="s">
         <v>219</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F35" t="s">
         <v>220</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G35" t="s">
         <v>221</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H35" t="s">
         <v>222</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I35" t="s">
         <v>223</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J35" t="s">
         <v>224</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K35" t="s">
         <v>225</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L35" t="s">
         <v>226</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M35" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="P35">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>194</v>
+      </c>
+      <c r="R35" t="s">
+        <v>206</v>
+      </c>
+      <c r="S35" t="s">
+        <v>218</v>
+      </c>
+      <c r="T35" t="s">
+        <v>230</v>
+      </c>
+      <c r="U35" t="s">
+        <v>242</v>
+      </c>
+      <c r="V35" t="s">
+        <v>253</v>
+      </c>
+      <c r="W35" t="s">
+        <v>264</v>
+      </c>
+      <c r="X35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B36" t="s">
         <v>228</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C36" t="s">
         <v>229</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D36" t="s">
         <v>230</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E36" t="s">
         <v>231</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F36" t="s">
         <v>232</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G36" t="s">
         <v>233</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H36" t="s">
         <v>234</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I36" t="s">
         <v>235</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J36" t="s">
         <v>236</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K36" t="s">
         <v>237</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L36" t="s">
         <v>238</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M36" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>195</v>
+      </c>
+      <c r="R36" t="s">
+        <v>207</v>
+      </c>
+      <c r="S36" t="s">
+        <v>219</v>
+      </c>
+      <c r="T36" t="s">
+        <v>231</v>
+      </c>
+      <c r="U36" t="s">
+        <v>243</v>
+      </c>
+      <c r="V36" t="s">
+        <v>254</v>
+      </c>
+      <c r="W36" t="s">
+        <v>265</v>
+      </c>
+      <c r="X36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B37" t="s">
         <v>240</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C37" t="s">
         <v>241</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D37" t="s">
         <v>242</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E37" t="s">
         <v>243</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F37" t="s">
         <v>244</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G37" t="s">
         <v>245</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H37" t="s">
         <v>246</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I37" t="s">
         <v>247</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J37" t="s">
         <v>248</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K37" t="s">
         <v>249</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L37" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>196</v>
+      </c>
+      <c r="R37" t="s">
+        <v>208</v>
+      </c>
+      <c r="S37" t="s">
+        <v>220</v>
+      </c>
+      <c r="T37" t="s">
+        <v>232</v>
+      </c>
+      <c r="U37" t="s">
+        <v>244</v>
+      </c>
+      <c r="V37" t="s">
+        <v>255</v>
+      </c>
+      <c r="W37" t="s">
+        <v>266</v>
+      </c>
+      <c r="X37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>64</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B38" t="s">
         <v>251</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C38" t="s">
         <v>252</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D38" t="s">
         <v>253</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E38" t="s">
         <v>254</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F38" t="s">
         <v>255</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G38" t="s">
         <v>256</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I38" t="s">
         <v>258</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J38" t="s">
         <v>259</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K38" t="s">
         <v>260</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L38" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="P38">
+        <v>6</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>197</v>
+      </c>
+      <c r="R38" t="s">
+        <v>209</v>
+      </c>
+      <c r="S38" t="s">
+        <v>221</v>
+      </c>
+      <c r="T38" t="s">
+        <v>233</v>
+      </c>
+      <c r="U38" t="s">
+        <v>245</v>
+      </c>
+      <c r="V38" t="s">
+        <v>256</v>
+      </c>
+      <c r="W38" t="s">
+        <v>267</v>
+      </c>
+      <c r="X38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B39" t="s">
         <v>262</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C39" t="s">
         <v>263</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D39" t="s">
         <v>264</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E39" t="s">
         <v>265</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F39" t="s">
         <v>266</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G39" t="s">
         <v>267</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H39" t="s">
         <v>268</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I39" t="s">
         <v>269</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J39" t="s">
         <v>270</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K39" t="s">
         <v>271</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L39" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="P39">
+        <v>7</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>198</v>
+      </c>
+      <c r="R39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S39" t="s">
+        <v>222</v>
+      </c>
+      <c r="T39" t="s">
+        <v>234</v>
+      </c>
+      <c r="U39" t="s">
+        <v>246</v>
+      </c>
+      <c r="V39" t="s">
+        <v>257</v>
+      </c>
+      <c r="W39" t="s">
+        <v>268</v>
+      </c>
+      <c r="X39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>88</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B40" t="s">
         <v>273</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C40" t="s">
         <v>274</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D40" t="s">
         <v>275</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E40" t="s">
         <v>276</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F40" t="s">
         <v>277</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G40" t="s">
         <v>278</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H40" t="s">
         <v>279</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I40" t="s">
         <v>280</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J40" t="s">
         <v>281</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K40" t="s">
         <v>282</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L40" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="P40">
+        <v>8</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>199</v>
+      </c>
+      <c r="R40" t="s">
+        <v>211</v>
+      </c>
+      <c r="S40" t="s">
+        <v>223</v>
+      </c>
+      <c r="T40" t="s">
+        <v>235</v>
+      </c>
+      <c r="U40" t="s">
+        <v>247</v>
+      </c>
+      <c r="V40" t="s">
+        <v>258</v>
+      </c>
+      <c r="W40" t="s">
+        <v>269</v>
+      </c>
+      <c r="X40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>9</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>200</v>
+      </c>
+      <c r="R41" t="s">
+        <v>212</v>
+      </c>
+      <c r="S41" t="s">
+        <v>224</v>
+      </c>
+      <c r="T41" t="s">
+        <v>236</v>
+      </c>
+      <c r="U41" t="s">
+        <v>248</v>
+      </c>
+      <c r="V41" t="s">
+        <v>259</v>
+      </c>
+      <c r="W41" t="s">
+        <v>270</v>
+      </c>
+      <c r="X41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>10</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>201</v>
+      </c>
+      <c r="R42" t="s">
+        <v>213</v>
+      </c>
+      <c r="S42" t="s">
+        <v>225</v>
+      </c>
+      <c r="T42" t="s">
+        <v>237</v>
+      </c>
+      <c r="U42" t="s">
+        <v>249</v>
+      </c>
+      <c r="V42" t="s">
+        <v>260</v>
+      </c>
+      <c r="W42" t="s">
+        <v>271</v>
+      </c>
+      <c r="X42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>11</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>202</v>
+      </c>
+      <c r="R43" t="s">
+        <v>214</v>
+      </c>
+      <c r="S43" t="s">
+        <v>226</v>
+      </c>
+      <c r="T43" t="s">
+        <v>238</v>
+      </c>
+      <c r="U43" t="s">
+        <v>250</v>
+      </c>
+      <c r="V43" t="s">
+        <v>261</v>
+      </c>
+      <c r="W43" t="s">
+        <v>272</v>
+      </c>
+      <c r="X43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>12</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>203</v>
+      </c>
+      <c r="R44" t="s">
+        <v>215</v>
+      </c>
+      <c r="S44" t="s">
+        <v>227</v>
+      </c>
+      <c r="T44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>508</v>
       </c>
-      <c r="B31">
+      <c r="B49">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="C49">
         <v>2</v>
       </c>
-      <c r="D31">
+      <c r="D49">
         <v>3</v>
       </c>
-      <c r="E31">
+      <c r="E49">
         <v>4</v>
       </c>
-      <c r="F31">
+      <c r="F49">
         <v>5</v>
       </c>
-      <c r="G31">
+      <c r="G49">
         <v>6</v>
       </c>
-      <c r="H31">
+      <c r="H49">
         <v>7</v>
       </c>
-      <c r="I31">
+      <c r="I49">
         <v>8</v>
       </c>
-      <c r="J31">
+      <c r="J49">
         <v>9</v>
       </c>
-      <c r="K31">
+      <c r="K49">
         <v>10</v>
       </c>
-      <c r="L31">
+      <c r="L49">
         <v>11</v>
       </c>
-      <c r="M31">
+      <c r="M49">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="P49" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q49" t="s">
         <v>0</v>
       </c>
-      <c r="B32" t="s">
+      <c r="R49" t="s">
+        <v>13</v>
+      </c>
+      <c r="S49" t="s">
+        <v>26</v>
+      </c>
+      <c r="T49" t="s">
+        <v>39</v>
+      </c>
+      <c r="U49" t="s">
+        <v>52</v>
+      </c>
+      <c r="V49" t="s">
+        <v>64</v>
+      </c>
+      <c r="W49" t="s">
+        <v>76</v>
+      </c>
+      <c r="X49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
         <v>284</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C50" t="s">
         <v>285</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D50" t="s">
         <v>286</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E50" t="s">
         <v>287</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F50" t="s">
         <v>288</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G50" t="s">
         <v>289</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H50" t="s">
         <v>290</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I50" t="s">
         <v>291</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J50" t="s">
         <v>292</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K50" t="s">
         <v>293</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L50" t="s">
         <v>294</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M50" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>284</v>
+      </c>
+      <c r="R50" t="s">
+        <v>296</v>
+      </c>
+      <c r="S50" t="s">
+        <v>308</v>
+      </c>
+      <c r="T50" t="s">
+        <v>320</v>
+      </c>
+      <c r="U50" t="s">
+        <v>332</v>
+      </c>
+      <c r="V50" t="s">
+        <v>343</v>
+      </c>
+      <c r="W50" t="s">
+        <v>354</v>
+      </c>
+      <c r="X50" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>13</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B51" t="s">
         <v>296</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C51" t="s">
         <v>297</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D51" t="s">
         <v>298</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E51" t="s">
         <v>299</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F51" t="s">
         <v>300</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G51" t="s">
         <v>301</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H51" t="s">
         <v>302</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I51" t="s">
         <v>303</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J51" t="s">
         <v>304</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K51" t="s">
         <v>305</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L51" t="s">
         <v>306</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M51" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>285</v>
+      </c>
+      <c r="R51" t="s">
+        <v>297</v>
+      </c>
+      <c r="S51" t="s">
+        <v>309</v>
+      </c>
+      <c r="T51" t="s">
+        <v>321</v>
+      </c>
+      <c r="U51" t="s">
+        <v>333</v>
+      </c>
+      <c r="V51" t="s">
+        <v>344</v>
+      </c>
+      <c r="W51" t="s">
+        <v>355</v>
+      </c>
+      <c r="X51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B52" t="s">
         <v>308</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C52" t="s">
         <v>309</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D52" t="s">
         <v>310</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E52" t="s">
         <v>311</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F52" t="s">
         <v>312</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G52" t="s">
         <v>313</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H52" t="s">
         <v>314</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I52" t="s">
         <v>315</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J52" t="s">
         <v>316</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K52" t="s">
         <v>317</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L52" t="s">
         <v>318</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M52" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>286</v>
+      </c>
+      <c r="R52" t="s">
+        <v>298</v>
+      </c>
+      <c r="S52" t="s">
+        <v>310</v>
+      </c>
+      <c r="T52" t="s">
+        <v>322</v>
+      </c>
+      <c r="U52" t="s">
+        <v>334</v>
+      </c>
+      <c r="V52" t="s">
+        <v>345</v>
+      </c>
+      <c r="W52" t="s">
+        <v>356</v>
+      </c>
+      <c r="X52" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B53" t="s">
         <v>320</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C53" t="s">
         <v>321</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D53" t="s">
         <v>322</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E53" t="s">
         <v>323</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F53" t="s">
         <v>324</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G53" t="s">
         <v>325</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H53" t="s">
         <v>326</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I53" t="s">
         <v>327</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J53" t="s">
         <v>328</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K53" t="s">
         <v>329</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L53" t="s">
         <v>330</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M53" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="P53">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>287</v>
+      </c>
+      <c r="R53" t="s">
+        <v>299</v>
+      </c>
+      <c r="S53" t="s">
+        <v>311</v>
+      </c>
+      <c r="T53" t="s">
+        <v>323</v>
+      </c>
+      <c r="U53" t="s">
+        <v>335</v>
+      </c>
+      <c r="V53" t="s">
+        <v>346</v>
+      </c>
+      <c r="W53" t="s">
+        <v>357</v>
+      </c>
+      <c r="X53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B54" t="s">
         <v>332</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C54" t="s">
         <v>333</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D54" t="s">
         <v>334</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E54" t="s">
         <v>335</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F54" t="s">
         <v>336</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G54" t="s">
         <v>337</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H54" t="s">
         <v>338</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I54" t="s">
         <v>339</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J54" t="s">
         <v>340</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K54" t="s">
         <v>341</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L54" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="P54">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>288</v>
+      </c>
+      <c r="R54" t="s">
+        <v>300</v>
+      </c>
+      <c r="S54" t="s">
+        <v>312</v>
+      </c>
+      <c r="T54" t="s">
+        <v>324</v>
+      </c>
+      <c r="U54" t="s">
+        <v>336</v>
+      </c>
+      <c r="V54" t="s">
+        <v>347</v>
+      </c>
+      <c r="W54" t="s">
+        <v>358</v>
+      </c>
+      <c r="X54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>64</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B55" t="s">
         <v>343</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C55" t="s">
         <v>344</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D55" t="s">
         <v>345</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E55" t="s">
         <v>346</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F55" t="s">
         <v>347</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G55" t="s">
         <v>348</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H55" t="s">
         <v>349</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I55" t="s">
         <v>350</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J55" t="s">
         <v>351</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K55" t="s">
         <v>352</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L55" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="P55">
+        <v>6</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>289</v>
+      </c>
+      <c r="R55" t="s">
+        <v>301</v>
+      </c>
+      <c r="S55" t="s">
+        <v>313</v>
+      </c>
+      <c r="T55" t="s">
+        <v>325</v>
+      </c>
+      <c r="U55" t="s">
+        <v>337</v>
+      </c>
+      <c r="V55" t="s">
+        <v>348</v>
+      </c>
+      <c r="W55" t="s">
+        <v>359</v>
+      </c>
+      <c r="X55" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B56" t="s">
         <v>354</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C56" t="s">
         <v>355</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D56" t="s">
         <v>356</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E56" t="s">
         <v>357</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F56" t="s">
         <v>358</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G56" t="s">
         <v>359</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H56" t="s">
         <v>360</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I56" t="s">
         <v>361</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J56" t="s">
         <v>362</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K56" t="s">
         <v>363</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L56" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="P56">
+        <v>7</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>290</v>
+      </c>
+      <c r="R56" t="s">
+        <v>302</v>
+      </c>
+      <c r="S56" t="s">
+        <v>314</v>
+      </c>
+      <c r="T56" t="s">
+        <v>326</v>
+      </c>
+      <c r="U56" t="s">
+        <v>338</v>
+      </c>
+      <c r="V56" t="s">
+        <v>349</v>
+      </c>
+      <c r="W56" t="s">
+        <v>360</v>
+      </c>
+      <c r="X56" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>88</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B57" t="s">
         <v>365</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C57" t="s">
         <v>366</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D57" t="s">
         <v>367</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E57" t="s">
         <v>368</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F57" t="s">
         <v>369</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G57" t="s">
         <v>370</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H57" t="s">
         <v>371</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I57" t="s">
         <v>372</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J57" t="s">
         <v>373</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K57" t="s">
         <v>374</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L57" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="P57">
+        <v>8</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>291</v>
+      </c>
+      <c r="R57" t="s">
+        <v>303</v>
+      </c>
+      <c r="S57" t="s">
+        <v>315</v>
+      </c>
+      <c r="T57" t="s">
+        <v>327</v>
+      </c>
+      <c r="U57" t="s">
+        <v>339</v>
+      </c>
+      <c r="V57" t="s">
+        <v>350</v>
+      </c>
+      <c r="W57" t="s">
+        <v>361</v>
+      </c>
+      <c r="X57" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P58">
+        <v>9</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>292</v>
+      </c>
+      <c r="R58" t="s">
+        <v>304</v>
+      </c>
+      <c r="S58" t="s">
+        <v>316</v>
+      </c>
+      <c r="T58" t="s">
+        <v>328</v>
+      </c>
+      <c r="U58" t="s">
+        <v>340</v>
+      </c>
+      <c r="V58" t="s">
+        <v>351</v>
+      </c>
+      <c r="W58" t="s">
+        <v>362</v>
+      </c>
+      <c r="X58" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P59">
+        <v>10</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>293</v>
+      </c>
+      <c r="R59" t="s">
+        <v>305</v>
+      </c>
+      <c r="S59" t="s">
+        <v>317</v>
+      </c>
+      <c r="T59" t="s">
+        <v>329</v>
+      </c>
+      <c r="U59" t="s">
+        <v>341</v>
+      </c>
+      <c r="V59" t="s">
+        <v>352</v>
+      </c>
+      <c r="W59" t="s">
+        <v>363</v>
+      </c>
+      <c r="X59" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P60">
+        <v>11</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>294</v>
+      </c>
+      <c r="R60" t="s">
+        <v>306</v>
+      </c>
+      <c r="S60" t="s">
+        <v>318</v>
+      </c>
+      <c r="T60" t="s">
+        <v>330</v>
+      </c>
+      <c r="U60" t="s">
+        <v>342</v>
+      </c>
+      <c r="V60" t="s">
+        <v>353</v>
+      </c>
+      <c r="W60" t="s">
+        <v>364</v>
+      </c>
+      <c r="X60" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P61">
+        <v>12</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>295</v>
+      </c>
+      <c r="R61" t="s">
+        <v>307</v>
+      </c>
+      <c r="S61" t="s">
+        <v>319</v>
+      </c>
+      <c r="T61" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>509</v>
       </c>
-      <c r="B41">
+      <c r="B64">
         <v>1</v>
       </c>
-      <c r="C41">
+      <c r="C64">
         <v>2</v>
       </c>
-      <c r="D41">
+      <c r="D64">
         <v>3</v>
       </c>
-      <c r="E41">
+      <c r="E64">
         <v>4</v>
       </c>
-      <c r="F41">
+      <c r="F64">
         <v>5</v>
       </c>
-      <c r="G41">
+      <c r="G64">
         <v>6</v>
       </c>
-      <c r="H41">
+      <c r="H64">
         <v>7</v>
       </c>
-      <c r="I41">
+      <c r="I64">
         <v>8</v>
       </c>
-      <c r="J41">
+      <c r="J64">
         <v>9</v>
       </c>
-      <c r="K41">
+      <c r="K64">
         <v>10</v>
       </c>
-      <c r="L41">
+      <c r="L64">
         <v>11</v>
       </c>
-      <c r="M41">
+      <c r="M64">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="P64" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q64" t="s">
         <v>0</v>
       </c>
-      <c r="B42" t="s">
+      <c r="R64" t="s">
+        <v>13</v>
+      </c>
+      <c r="S64" t="s">
+        <v>26</v>
+      </c>
+      <c r="T64" t="s">
+        <v>39</v>
+      </c>
+      <c r="U64" t="s">
+        <v>52</v>
+      </c>
+      <c r="V64" t="s">
+        <v>64</v>
+      </c>
+      <c r="W64" t="s">
+        <v>76</v>
+      </c>
+      <c r="X64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
         <v>376</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C65" t="s">
         <v>377</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D65" t="s">
         <v>378</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E65" t="s">
         <v>379</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F65" t="s">
         <v>380</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G65" t="s">
         <v>381</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H65" t="s">
         <v>382</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I65" t="s">
         <v>383</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J65" t="s">
         <v>384</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K65" t="s">
         <v>385</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L65" t="s">
         <v>386</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M65" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>376</v>
+      </c>
+      <c r="R65" t="s">
+        <v>388</v>
+      </c>
+      <c r="S65" t="s">
+        <v>400</v>
+      </c>
+      <c r="T65" t="s">
+        <v>412</v>
+      </c>
+      <c r="U65" t="s">
+        <v>424</v>
+      </c>
+      <c r="V65" t="s">
+        <v>435</v>
+      </c>
+      <c r="W65" t="s">
+        <v>446</v>
+      </c>
+      <c r="X65" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>13</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B66" t="s">
         <v>388</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C66" t="s">
         <v>389</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D66" t="s">
         <v>390</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E66" t="s">
         <v>391</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F66" t="s">
         <v>392</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G66" t="s">
         <v>393</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H66" t="s">
         <v>394</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I66" t="s">
         <v>395</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J66" t="s">
         <v>396</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K66" t="s">
         <v>397</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L66" t="s">
         <v>398</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M66" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="P66">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>377</v>
+      </c>
+      <c r="R66" t="s">
+        <v>389</v>
+      </c>
+      <c r="S66" t="s">
+        <v>401</v>
+      </c>
+      <c r="T66" t="s">
+        <v>413</v>
+      </c>
+      <c r="U66" t="s">
+        <v>425</v>
+      </c>
+      <c r="V66" t="s">
+        <v>436</v>
+      </c>
+      <c r="W66" t="s">
+        <v>447</v>
+      </c>
+      <c r="X66" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>26</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B67" t="s">
         <v>400</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C67" t="s">
         <v>401</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D67" t="s">
         <v>402</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E67" t="s">
         <v>403</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F67" t="s">
         <v>404</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G67" t="s">
         <v>405</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H67" t="s">
         <v>406</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I67" t="s">
         <v>407</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J67" t="s">
         <v>408</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K67" t="s">
         <v>409</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L67" t="s">
         <v>410</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M67" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>378</v>
+      </c>
+      <c r="R67" t="s">
+        <v>390</v>
+      </c>
+      <c r="S67" t="s">
+        <v>402</v>
+      </c>
+      <c r="T67" t="s">
+        <v>414</v>
+      </c>
+      <c r="U67" t="s">
+        <v>426</v>
+      </c>
+      <c r="V67" t="s">
+        <v>437</v>
+      </c>
+      <c r="W67" t="s">
+        <v>448</v>
+      </c>
+      <c r="X67" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>39</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B68" t="s">
         <v>412</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C68" t="s">
         <v>413</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D68" t="s">
         <v>414</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E68" t="s">
         <v>415</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F68" t="s">
         <v>416</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G68" t="s">
         <v>417</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H68" t="s">
         <v>418</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I68" t="s">
         <v>419</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J68" t="s">
         <v>420</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K68" t="s">
         <v>421</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L68" t="s">
         <v>422</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M68" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="P68">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>379</v>
+      </c>
+      <c r="R68" t="s">
+        <v>391</v>
+      </c>
+      <c r="S68" t="s">
+        <v>403</v>
+      </c>
+      <c r="T68" t="s">
+        <v>415</v>
+      </c>
+      <c r="U68" t="s">
+        <v>427</v>
+      </c>
+      <c r="V68" t="s">
+        <v>438</v>
+      </c>
+      <c r="W68" t="s">
+        <v>449</v>
+      </c>
+      <c r="X68" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>52</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B69" t="s">
         <v>424</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C69" t="s">
         <v>425</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D69" t="s">
         <v>426</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E69" t="s">
         <v>427</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F69" t="s">
         <v>428</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G69" t="s">
         <v>429</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H69" t="s">
         <v>430</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I69" t="s">
         <v>431</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J69" t="s">
         <v>432</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K69" t="s">
         <v>433</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L69" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="P69">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>380</v>
+      </c>
+      <c r="R69" t="s">
+        <v>392</v>
+      </c>
+      <c r="S69" t="s">
+        <v>404</v>
+      </c>
+      <c r="T69" t="s">
+        <v>416</v>
+      </c>
+      <c r="U69" t="s">
+        <v>428</v>
+      </c>
+      <c r="V69" t="s">
+        <v>439</v>
+      </c>
+      <c r="W69" t="s">
+        <v>450</v>
+      </c>
+      <c r="X69" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>64</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B70" t="s">
         <v>435</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C70" t="s">
         <v>436</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D70" t="s">
         <v>437</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E70" t="s">
         <v>438</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F70" t="s">
         <v>439</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G70" t="s">
         <v>440</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H70" t="s">
         <v>441</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I70" t="s">
         <v>442</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J70" t="s">
         <v>443</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K70" t="s">
         <v>444</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L70" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="P70">
+        <v>6</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>381</v>
+      </c>
+      <c r="R70" t="s">
+        <v>393</v>
+      </c>
+      <c r="S70" t="s">
+        <v>405</v>
+      </c>
+      <c r="T70" t="s">
+        <v>417</v>
+      </c>
+      <c r="U70" t="s">
+        <v>429</v>
+      </c>
+      <c r="V70" t="s">
+        <v>440</v>
+      </c>
+      <c r="W70" t="s">
+        <v>451</v>
+      </c>
+      <c r="X70" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>76</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B71" t="s">
         <v>446</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C71" t="s">
         <v>447</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D71" t="s">
         <v>448</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E71" t="s">
         <v>449</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F71" t="s">
         <v>450</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G71" t="s">
         <v>451</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H71" t="s">
         <v>452</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I71" t="s">
         <v>453</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J71" t="s">
         <v>454</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K71" t="s">
         <v>455</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L71" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="P71">
+        <v>7</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>382</v>
+      </c>
+      <c r="R71" t="s">
+        <v>394</v>
+      </c>
+      <c r="S71" t="s">
+        <v>406</v>
+      </c>
+      <c r="T71" t="s">
+        <v>418</v>
+      </c>
+      <c r="U71" t="s">
+        <v>430</v>
+      </c>
+      <c r="V71" t="s">
+        <v>441</v>
+      </c>
+      <c r="W71" t="s">
+        <v>452</v>
+      </c>
+      <c r="X71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>88</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B72" t="s">
         <v>457</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C72" t="s">
         <v>458</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D72" t="s">
         <v>459</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E72" t="s">
         <v>460</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F72" t="s">
         <v>461</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G72" t="s">
         <v>462</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H72" t="s">
         <v>463</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I72" t="s">
         <v>464</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J72" t="s">
         <v>465</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K72" t="s">
         <v>466</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L72" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="P72">
+        <v>8</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>383</v>
+      </c>
+      <c r="R72" t="s">
+        <v>395</v>
+      </c>
+      <c r="S72" t="s">
+        <v>407</v>
+      </c>
+      <c r="T72" t="s">
+        <v>419</v>
+      </c>
+      <c r="U72" t="s">
+        <v>431</v>
+      </c>
+      <c r="V72" t="s">
+        <v>442</v>
+      </c>
+      <c r="W72" t="s">
+        <v>453</v>
+      </c>
+      <c r="X72" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P73">
+        <v>9</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>384</v>
+      </c>
+      <c r="R73" t="s">
+        <v>396</v>
+      </c>
+      <c r="S73" t="s">
+        <v>408</v>
+      </c>
+      <c r="T73" t="s">
+        <v>420</v>
+      </c>
+      <c r="U73" t="s">
+        <v>432</v>
+      </c>
+      <c r="V73" t="s">
+        <v>443</v>
+      </c>
+      <c r="W73" t="s">
+        <v>454</v>
+      </c>
+      <c r="X73" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P74">
+        <v>10</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>385</v>
+      </c>
+      <c r="R74" t="s">
+        <v>397</v>
+      </c>
+      <c r="S74" t="s">
+        <v>409</v>
+      </c>
+      <c r="T74" t="s">
+        <v>421</v>
+      </c>
+      <c r="U74" t="s">
+        <v>433</v>
+      </c>
+      <c r="V74" t="s">
+        <v>444</v>
+      </c>
+      <c r="W74" t="s">
+        <v>455</v>
+      </c>
+      <c r="X74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P75">
+        <v>11</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>386</v>
+      </c>
+      <c r="R75" t="s">
+        <v>398</v>
+      </c>
+      <c r="S75" t="s">
+        <v>410</v>
+      </c>
+      <c r="T75" t="s">
+        <v>422</v>
+      </c>
+      <c r="U75" t="s">
+        <v>434</v>
+      </c>
+      <c r="V75" t="s">
+        <v>445</v>
+      </c>
+      <c r="W75" t="s">
+        <v>456</v>
+      </c>
+      <c r="X75" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P76">
+        <v>12</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>387</v>
+      </c>
+      <c r="R76" t="s">
+        <v>399</v>
+      </c>
+      <c r="S76" t="s">
+        <v>411</v>
+      </c>
+      <c r="T76" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>510</v>
       </c>
-      <c r="B51">
+      <c r="B82">
         <v>1</v>
       </c>
-      <c r="C51">
+      <c r="C82">
         <v>2</v>
       </c>
-      <c r="D51">
+      <c r="D82">
         <v>3</v>
       </c>
-      <c r="E51">
+      <c r="E82">
         <v>4</v>
       </c>
-      <c r="F51">
+      <c r="F82">
         <v>5</v>
       </c>
-      <c r="G51">
+      <c r="G82">
         <v>6</v>
       </c>
-      <c r="H51">
+      <c r="H82">
         <v>7</v>
       </c>
-      <c r="I51">
+      <c r="I82">
         <v>8</v>
       </c>
-      <c r="J51">
+      <c r="J82">
         <v>9</v>
       </c>
-      <c r="K51">
+      <c r="K82">
         <v>10</v>
       </c>
-      <c r="L51">
+      <c r="L82">
         <v>11</v>
       </c>
-      <c r="M51">
+      <c r="M82">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="P82" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q82" t="s">
         <v>0</v>
       </c>
-      <c r="B52" t="s">
+      <c r="R82" t="s">
+        <v>13</v>
+      </c>
+      <c r="S82" t="s">
+        <v>26</v>
+      </c>
+      <c r="T82" t="s">
+        <v>39</v>
+      </c>
+      <c r="U82" t="s">
+        <v>52</v>
+      </c>
+      <c r="V82" t="s">
+        <v>64</v>
+      </c>
+      <c r="W82" t="s">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
         <v>468</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C83" t="s">
         <v>469</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D83" t="s">
         <v>470</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E83" t="s">
         <v>471</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F83" t="s">
         <v>472</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G83" t="s">
         <v>473</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H83" t="s">
         <v>474</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I83" t="s">
         <v>475</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J83" t="s">
         <v>476</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K83" t="s">
         <v>477</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L83" t="s">
         <v>478</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M83" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>468</v>
+      </c>
+      <c r="R83" t="s">
+        <v>480</v>
+      </c>
+      <c r="S83" t="s">
+        <v>492</v>
+      </c>
+      <c r="T83" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>13</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B84" t="s">
         <v>480</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C84" t="s">
         <v>481</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D84" t="s">
         <v>482</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E84" t="s">
         <v>483</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F84" t="s">
         <v>484</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G84" t="s">
         <v>485</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H84" t="s">
         <v>486</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I84" t="s">
         <v>487</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J84" t="s">
         <v>488</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K84" t="s">
         <v>489</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L84" t="s">
         <v>490</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M84" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="P84">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>469</v>
+      </c>
+      <c r="R84" t="s">
+        <v>481</v>
+      </c>
+      <c r="S84" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>26</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B85" t="s">
         <v>492</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C85" t="s">
         <v>493</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D85" t="s">
         <v>494</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E85" t="s">
         <v>495</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F85" t="s">
         <v>496</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G85" t="s">
         <v>497</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H85" t="s">
         <v>498</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I85" t="s">
         <v>499</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J85" t="s">
         <v>500</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K85" t="s">
         <v>501</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L85" t="s">
         <v>502</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M85" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="P85">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>470</v>
+      </c>
+      <c r="R85" t="s">
+        <v>482</v>
+      </c>
+      <c r="S85" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>39</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B86" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="P86">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>471</v>
+      </c>
+      <c r="R86" t="s">
+        <v>483</v>
+      </c>
+      <c r="S86" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="P87">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>472</v>
+      </c>
+      <c r="R87" t="s">
+        <v>484</v>
+      </c>
+      <c r="S87" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="P88">
+        <v>6</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>473</v>
+      </c>
+      <c r="R88" t="s">
+        <v>485</v>
+      </c>
+      <c r="S88" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="P89">
+        <v>7</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>474</v>
+      </c>
+      <c r="R89" t="s">
+        <v>486</v>
+      </c>
+      <c r="S89" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>88</v>
+      </c>
+      <c r="P90">
+        <v>8</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>475</v>
+      </c>
+      <c r="R90" t="s">
+        <v>487</v>
+      </c>
+      <c r="S90" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P91">
+        <v>9</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>476</v>
+      </c>
+      <c r="R91" t="s">
+        <v>488</v>
+      </c>
+      <c r="S91" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P92">
+        <v>10</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>477</v>
+      </c>
+      <c r="R92" t="s">
+        <v>489</v>
+      </c>
+      <c r="S92" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P93">
+        <v>11</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>478</v>
+      </c>
+      <c r="R93" t="s">
+        <v>490</v>
+      </c>
+      <c r="S93" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P94">
+        <v>12</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>479</v>
+      </c>
+      <c r="R94" t="s">
+        <v>491</v>
+      </c>
+      <c r="S94" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/KRLA_extraction_plates.xlsx
+++ b/KRLA_extraction_plates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/KRLA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D926D62C-B595-FD44-8F7F-D8185A56252C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617FC50E-3036-CC43-A6DC-4DE17EFA07E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="17360" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KRLA_extraction_plates" sheetId="1" r:id="rId1"/>
@@ -2395,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O91" sqref="O91"/>
+    <sheetView tabSelected="1" topLeftCell="L53" workbookViewId="0">
+      <selection activeCell="U54" sqref="U54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
